--- a/Table/Table_xls/q切游戏语录表.xlsx
+++ b/Table/Table_xls/q切游戏语录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -25,69 +25,31 @@
     <t>最大行数</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>切换地图是不会产生流量的哦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>~</t>
-    </r>
-  </si>
-  <si>
-    <t>恭喜发财制作qq:69783616</t>
-  </si>
-  <si>
-    <t>官方暂不支持玩家间的交易，请警惕风险，预防受骗。</t>
-  </si>
-  <si>
-    <t>加入公会后，可以学习丰富的生活技能和专精技能。</t>
+    <t>线下交易会有风险的，本服不支持线下交易。</t>
+  </si>
+  <si>
+    <t>玩家可以通过点击后台，进行充值和抽奖。。。</t>
+  </si>
+  <si>
+    <t>前期可以通过抓鬼，封妖，12元辰等任务提高经验和获得奖励。</t>
+  </si>
+  <si>
+    <t>加入公会后，可以学习丰富的生活技能和提高修炼。</t>
   </si>
   <si>
     <t>野生宠物通过洗炼可以变为宝宝。</t>
   </si>
   <si>
-    <t>专精技能可以大幅提升你的属性。</t>
-  </si>
-  <si>
-    <t>使用对应的原石进行强化打造装备，可以获得更高属性。</t>
-  </si>
-  <si>
-    <t>职业日常是每日必做任务。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每天可以找探险者协会的布莱同需领取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次考古任务。</t>
-    </r>
+    <t>每日任务可以获得各种装备合成材料和宝宝材料。</t>
+  </si>
+  <si>
+    <t>使用强化石合成装备可以提高橙装的几率。</t>
+  </si>
+  <si>
+    <t>师门任务是每日必做的任务，可以获得大量的经验。</t>
+  </si>
+  <si>
+    <t>转生和渡劫可以提高玩家的属性。</t>
   </si>
   <si>
     <t>珍品装备、宝宝可以通过拍卖行进行交易。</t>
@@ -102,7 +64,7 @@
     <t>高级藏宝图有几率放出宠物幼儿园。</t>
   </si>
   <si>
-    <t>集齐一套巨龙残骸可以找探险者协会的布莱同需换取高级藏宝图。</t>
+    <t>装备可以通过装备点化，和套装点化来提高属性，获得技能的提升效果。</t>
   </si>
   <si>
     <t>烹饪是一项生活技能。</t>
@@ -223,45 +185,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每天可以封印</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>次远古魔像。</t>
-    </r>
+    <t>套装点化可以获得其他门派的技能。</t>
   </si>
   <si>
     <t>日常副本每场将消耗5点多倍点数，大大提升经验。</t>
   </si>
   <si>
-    <t>每天整点会有巨龙军团入侵MT世界。</t>
+    <t>后台抽奖可以获得大量的宝物。</t>
   </si>
   <si>
     <t>两颗低级宝石可以通过合成获得一颗高级宝石。</t>
   </si>
   <si>
-    <t>耐久度可以通过相关模具进行修理。</t>
-  </si>
-  <si>
-    <t>活跃度达到一定的值都能在活动界面领取奖励。</t>
+    <t>耐久度没有了可以使用珍珠修理，珍珠再商城购买。</t>
+  </si>
+  <si>
+    <t>每日签到，和七日签到可以获得大量宝物。</t>
   </si>
   <si>
     <t>战斗时长按技能图标可以查看技能的相关说明。</t>
@@ -270,7 +209,7 @@
     <t>战斗中点击技能图标可以进行辅助设置。</t>
   </si>
   <si>
-    <t>60级以上的装备可以镶嵌两颗宝石。</t>
+    <t>橙色装备可以镶嵌3颗宝石。</t>
   </si>
   <si>
     <r>
@@ -318,10 +257,10 @@
     <t>离线后也能获得经验哦！</t>
   </si>
   <si>
-    <t>特殊修理不会损坏装备。</t>
-  </si>
-  <si>
-    <t>据我所知，那些厉害的宠物都是通过合宠获得的，当然你也可以去拍卖行购买。</t>
+    <t>装备点化后的装备属性可以大量提高。</t>
+  </si>
+  <si>
+    <t>合宠可以获得更多技能的宝宝几率提高成长资质。</t>
   </si>
   <si>
     <t>镶嵌高级宝石能让你更加强力。</t>
@@ -330,13 +269,13 @@
     <t>与他人共享账号可能让你失去它。</t>
   </si>
   <si>
-    <t>伙伴助战也有职业区分呦。</t>
+    <t>合理的使用助战，可以提高战斗力。</t>
   </si>
   <si>
     <t>两只宝宝可以进行“合宠”操作哦。</t>
   </si>
   <si>
-    <t>组队时请保持礼貌，他们会再次邀请你入队。</t>
+    <t>装备重铸前，请先卸下宝石。</t>
   </si>
   <si>
     <t>请勿轻信非官方发布的代充广告，多为敲诈行为。若充值有困难，可联系客服解决。</t>
@@ -351,7 +290,7 @@
     <t>帮助其他玩家完成剧情任务时，可以获得援助经验奖励哦！</t>
   </si>
   <si>
-    <t>击败高级藏宝图释放的上古之神，有可能获得价值不菲的道具哦。</t>
+    <t>挖宝可以获得大量的宝物。</t>
   </si>
   <si>
     <t>精英副本每天只能获得两次奖励。</t>
@@ -360,7 +299,7 @@
     <t>合理的分配队伍可以让你们在公会副本中的效率更高。</t>
   </si>
   <si>
-    <t>公会副本竞速排行榜是公会荣誉和实力的象征！</t>
+    <t>帮派内可以提高修炼。</t>
   </si>
   <si>
     <t>在活动界面可以查看活动周历，所有活动时间一目了然。</t>
@@ -387,16 +326,16 @@
     <t>活动界面的推送功能里边可以自定义想要进行推送提醒的活动项目。</t>
   </si>
   <si>
-    <t>在紫罗兰染色人处可以设计您个性的染色方案，让您脱颖而出。</t>
-  </si>
-  <si>
-    <t>不同的光环间存在克制关系。</t>
+    <t>幻化石可以幻化宠物颜色。</t>
+  </si>
+  <si>
+    <t>不同的阵法有互克的效果。</t>
   </si>
   <si>
     <t>点击屏幕左上角的缩略图标可以直接打开世界地图。</t>
   </si>
   <si>
-    <t>暂时闲置的宠物可以存放在宠物仓库中。</t>
+    <t>下次更新宠物装备，符石，本服长期更新，只做独家。</t>
   </si>
   <si>
     <t>战斗失败时尝试调整一下阵容，合理的阵容搭配更加有效获得战斗胜利。</t>
@@ -407,10 +346,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -437,15 +376,105 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,44 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -503,14 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,11 +502,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,35 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -571,20 +524,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -595,187 +534,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,6 +725,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -800,21 +748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,13 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,8 +808,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -891,148 +830,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,6 +1034,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1420,22 +1364,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="102.857142857143" customWidth="1"/>
+    <col min="2" max="2" width="102.861111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Table/Table_xls/q切游戏语录表.xlsx
+++ b/Table/Table_xls/q切游戏语录表.xlsx
@@ -281,16 +281,66 @@
     <t>请勿轻信非官方发布的代充广告，多为敲诈行为。若充值有困难，可联系客服解决。</t>
   </si>
   <si>
-    <t>每天第一次切换加点都是免费的哦！</t>
-  </si>
-  <si>
-    <t>不同的加点方案将会有不同的能力偏向，大家多多尝试不同的加点方案吧！</t>
-  </si>
-  <si>
-    <t>帮助其他玩家完成剧情任务时，可以获得援助经验奖励哦！</t>
-  </si>
-  <si>
-    <t>挖宝可以获得大量的宝物。</t>
+    <t>1.点开NPC点充值微信支付宝扫码即可点开商城 想买什么自己选或者搜索物品， VIP只能吃-次 多吃无效。满V 卡买了吃了即可获得首充在福利界面领取</t>
+  </si>
+  <si>
+    <t>抽奖点抽奖10元- -次 80元十次稳赚不亏</t>
+  </si>
+  <si>
+    <t>老G每矢18个主播推广费用实在巨大 为了人气越来越多希望大家多多支持跪谢大家了</t>
+  </si>
+  <si>
+    <r>
+      <t>为了防止广告世界说话摆摊需要满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>才行商城买</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块钱的满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>然后到背包把他吃了就行</t>
+    </r>
   </si>
   <si>
     <t>精英副本每天只能获得两次奖励。</t>
@@ -346,9 +396,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -369,24 +419,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,17 +463,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -418,15 +522,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,91 +568,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,19 +584,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,163 +710,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,11 +784,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,17 +814,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,26 +847,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,171 +881,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1372,8 +1430,8 @@
   <sheetPr/>
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2" outlineLevelCol="2"/>
@@ -1825,7 +1883,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="1">
@@ -1836,7 +1894,7 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C42" s="1">
@@ -1847,7 +1905,7 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="1">
